--- a/biology/Zoologie/Euspinolia_militaris/Euspinolia_militaris.xlsx
+++ b/biology/Zoologie/Euspinolia_militaris/Euspinolia_militaris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La « fourmi panda » (Euspinolia militaris) est une espèce d'insectes hyménoptères de la famille des Mutillidae. C'est une espèce très résistante. En dépit de son apparence de fourmi, il s'agit d'une guêpe[1] sans ailes chez les femelles et pourvue d'ailes chez les mâles. Ses poils font penser au pelage du panda géant, c'est pour cela qu'elle porte ce nom.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La « fourmi panda » (Euspinolia militaris) est une espèce d'insectes hyménoptères de la famille des Mutillidae. C'est une espèce très résistante. En dépit de son apparence de fourmi, il s'agit d'une guêpe sans ailes chez les femelles et pourvue d'ailes chez les mâles. Ses poils font penser au pelage du panda géant, c'est pour cela qu'elle porte ce nom.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>La description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La « fourmi panda » est aussi surnommée « la tueuse de vache » car sa piqure est très douloureuse.
 Ses poils sont de couleur blanche sur la tête, blancs et noirs sur le reste du corps.
@@ -545,7 +559,9 @@
           <t>Son habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce vit principalement dans la forêt de la région chilienne de Coquimbo, mais elle a récemment été aperçue dans certaines régions du Mexique et dans le sud-ouest des États-Unis.
 </t>
@@ -576,7 +592,9 @@
           <t>La reproduction</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La guêpe a un rituel d’accouplement peu courant ; le mâle prend la femelle sur ses ailes pendant l’accouplement et ils se reproduisent en volant.
 Après avoir terminé, la femelle cherchera un nid d’insectes comme une ruche ou un nid de guêpes où elle va déposer ses œufs près de chaque larve.
@@ -609,7 +627,9 @@
           <t>Caractéristiques physiques</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">L’espèce se caractérise par son dimorphisme sexuel.[précision nécessaire]
 Cet animal possède également un exosquelette très épais. Cet exosquelette le protège des prédateurs et lui permet d'envahir les nids d'insectes (revoir la section sur la reproduction). Il peut aussi servir à préserver son humidité.
@@ -643,7 +663,9 @@
           <t>Comportement</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Les mâles et les femelles de cette espèce ont une structure sur la partie postérieure de leur corps qu’ils utilisent pour émettre un gazouillis lorsqu’ils sont alarmés. De plus, la femelle est très active pendant la journée, tandis que le mâle est surtout un animal nocturne.
 </t>
